--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45308</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,14 +1321,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 60820-2023</t>
+          <t>A 26958-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45260</v>
+        <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1375,209 +1375,209 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Murgröna</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 26958-2025 artfynd.xlsx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 26958-2025 karta.png", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 26958-2025 FSC-klagomål.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 26958-2025 FSC-klagomål mail.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 26958-2025 tillsynsbegäran.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 26958-2025 tillsynsbegäran mail.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 60820-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Guldlockmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60820-2023 artfynd.xlsx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60820-2023 karta.png", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60820-2023 FSC-klagomål.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60820-2023 FSC-klagomål mail.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60820-2023 tillsynsbegäran.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60820-2023 tillsynsbegäran mail.docx", "A 60820-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 756-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45300</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>13.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 756-2024 artfynd.xlsx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 756-2024 karta.png", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 756-2024 FSC-klagomål.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 756-2024 FSC-klagomål mail.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 756-2024 tillsynsbegäran.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 756-2024 tillsynsbegäran mail.docx", "A 756-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 26958-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45811.4569212963</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 26958-2025 artfynd.xlsx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 26958-2025 karta.png", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 26958-2025 FSC-klagomål.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 26958-2025 FSC-klagomål mail.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 26958-2025 tillsynsbegäran.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 26958-2025 tillsynsbegäran mail.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45746</v>
+        <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45337</v>
+        <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,8 +2624,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>12.6</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44749</v>
+        <v>45313</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2682,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2719,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45202</v>
+        <v>44579</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2739,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2776,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45299</v>
+        <v>45386</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2795,13 +2800,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>67.40000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2838,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45323</v>
+        <v>45300</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>15.2</v>
+        <v>11.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2900,14 +2900,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45399</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2919,13 +2919,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>16.2</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2962,14 +2957,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,13 +2976,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.7</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3024,14 +3014,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44344</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3049,7 +3039,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>14.8</v>
+        <v>6.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3086,14 +3076,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45429</v>
+        <v>44986</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3105,8 +3095,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3143,14 +3138,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3163,7 +3158,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3200,14 +3195,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45744</v>
+        <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3220,7 +3215,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3257,14 +3252,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45455</v>
+        <v>45337</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3277,7 +3272,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>12.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3314,14 +3309,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45457</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3333,8 +3328,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45313</v>
+        <v>45338</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3390,8 +3390,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3428,14 +3433,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45910</v>
+        <v>45338</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3447,8 +3452,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3485,14 +3495,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45909</v>
+        <v>45202</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3505,7 +3515,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3542,14 +3552,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45940</v>
+        <v>44749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3572,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3599,14 +3609,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44991</v>
+        <v>45299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3624,7 +3634,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3661,14 +3671,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46003</v>
+        <v>45338</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3680,8 +3690,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3718,14 +3733,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45940</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3738,7 +3753,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3775,14 +3790,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45744</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3794,13 +3809,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>11.2</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3837,14 +3847,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45474</v>
+        <v>45909</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3857,7 +3867,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3894,14 +3904,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44952</v>
+        <v>45455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3914,7 +3924,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3951,14 +3961,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45414</v>
+        <v>45910</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3970,13 +3980,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4013,14 +4018,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45940</v>
+        <v>45429</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4033,7 +4038,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4070,14 +4075,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45323</v>
+        <v>44907</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4100,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4132,14 +4137,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45112</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,8 +4156,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4189,14 +4199,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45408</v>
+        <v>45474</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4209,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4246,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44999</v>
+        <v>45302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4267,11 +4277,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>16.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4308,14 +4318,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45260</v>
+        <v>45337</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4328,7 +4338,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>12.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4365,14 +4375,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4385,7 +4395,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4422,14 +4432,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45323</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4441,8 +4451,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4479,14 +4494,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4499,7 +4514,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4536,14 +4551,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45350</v>
+        <v>45338</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4555,8 +4570,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>28.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4593,14 +4613,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4614,11 +4634,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.5</v>
+        <v>0.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4655,14 +4675,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45891</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4675,7 +4695,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4712,14 +4732,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46049</v>
+        <v>45891</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,13 +4751,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4774,14 +4789,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4793,13 +4808,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4836,14 +4846,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45891</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4855,8 +4865,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4893,14 +4908,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45891</v>
+        <v>45863</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4928,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,14 +4965,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46045</v>
+        <v>45324</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4975,7 +4990,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>9.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5019,7 +5034,7 @@
         <v>44578.48868055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5096,7 @@
         <v>44578.49351851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5136,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44986</v>
+        <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5155,13 +5170,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5198,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46053</v>
+        <v>45385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5218,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5255,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44888</v>
+        <v>45412</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5274,8 +5284,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5312,14 +5327,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45966</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5331,13 +5346,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5374,14 +5384,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46000</v>
+        <v>45966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5394,7 +5404,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5431,14 +5441,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5450,13 +5460,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5493,14 +5498,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5512,13 +5517,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5555,14 +5555,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45009</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5612,14 +5612,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45966</v>
+        <v>45408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5669,14 +5669,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45966</v>
+        <v>45940</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5726,14 +5726,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45338</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>28.6</v>
+        <v>12.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5788,14 +5788,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45354</v>
+        <v>44320</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5850,14 +5850,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45386</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5869,8 +5869,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5907,14 +5912,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45399</v>
+        <v>45546</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5926,8 +5931,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5964,14 +5974,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45978</v>
+        <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5984,7 +5994,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6021,14 +6031,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44579</v>
+        <v>44344</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6040,8 +6050,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>14.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6078,14 +6093,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45328</v>
+        <v>46003</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6098,7 +6113,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6150,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45488</v>
+        <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,8 +6169,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6192,14 +6212,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44320</v>
+        <v>45414</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6217,7 +6237,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6254,14 +6274,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45338</v>
+        <v>45009</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6273,13 +6293,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6323,7 +6338,7 @@
         <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6373,14 +6388,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45104</v>
+        <v>45940</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6392,13 +6407,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6435,14 +6445,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45706</v>
+        <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6455,7 +6465,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6492,14 +6502,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45749</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6512,7 +6522,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6549,14 +6559,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45112</v>
+        <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,13 +6578,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6611,14 +6616,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45119</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6630,8 +6635,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6668,14 +6678,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45376</v>
+        <v>46049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6693,7 +6703,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6730,14 +6740,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45408</v>
+        <v>44952</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6750,7 +6760,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6787,14 +6797,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6806,8 +6816,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6844,14 +6859,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45162</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6864,7 +6879,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6901,14 +6916,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45211</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6920,8 +6935,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6958,14 +6978,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44907</v>
+        <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6983,7 +7003,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7020,14 +7040,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44665</v>
+        <v>46045</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7045,7 +7065,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7082,14 +7102,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45337</v>
+        <v>46053</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7102,7 +7122,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7139,14 +7159,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45299</v>
+        <v>45457</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7158,13 +7178,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7201,14 +7216,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45302</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7226,7 +7241,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>16.1</v>
+        <v>4.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7263,14 +7278,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44830</v>
+        <v>45329</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7282,8 +7297,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7320,14 +7340,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44384</v>
+        <v>46000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7339,13 +7359,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7382,14 +7397,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45469</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7417,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7439,14 +7454,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45418</v>
+        <v>45162</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,13 +7473,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7501,14 +7511,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45453</v>
+        <v>45429</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,13 +7530,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7563,14 +7568,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45338</v>
+        <v>45418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7584,11 +7589,11 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7625,14 +7630,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45338</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7646,11 +7651,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>11.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7687,14 +7692,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45412</v>
+        <v>45469</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7706,13 +7711,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7749,14 +7749,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7768,8 +7768,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7806,14 +7811,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45211</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7825,13 +7830,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7868,14 +7868,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45329</v>
+        <v>45706</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7887,13 +7887,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7925,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45300</v>
+        <v>45334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7949,13 +7944,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7992,14 +7982,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44876</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8011,8 +8001,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8049,14 +8044,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8064,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8106,14 +8101,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45546</v>
+        <v>44888</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8123,11 +8118,6 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -8168,14 +8158,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45429</v>
+        <v>45354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8187,8 +8177,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8225,14 +8220,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45324</v>
+        <v>44665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8250,7 +8245,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8287,14 +8282,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>44384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8312,7 +8307,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>12.4</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8349,14 +8344,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>44830</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8368,13 +8363,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8411,14 +8401,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45534</v>
+        <v>45453</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8430,8 +8420,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8468,14 +8463,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45385</v>
+        <v>45328</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8488,7 +8483,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>9.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8525,14 +8520,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45399</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8544,8 +8539,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>16.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8582,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8601,13 +8601,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>6.3</v>
+        <v>0.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8644,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45334</v>
+        <v>45260</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8664,7 +8659,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8701,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8718,11 +8713,6 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -8763,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45532</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8783,7 +8773,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8820,14 +8810,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45532</v>
+        <v>45323</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8839,8 +8829,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>15.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8877,14 +8872,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8896,8 +8891,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8934,14 +8934,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8991,14 +8991,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>44999</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9010,8 +9010,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9053,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45791</v>
+        <v>45749</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9073,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9105,14 +9110,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45758</v>
+        <v>45532</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9125,7 +9130,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9162,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45547</v>
+        <v>45532</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9182,7 +9187,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9219,14 +9224,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45579</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9244,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>10.1</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9276,14 +9281,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9296,7 +9301,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9333,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45337</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9358,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>12.6</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,13 +9414,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45863</v>
+        <v>45758</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45308</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45313</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44579</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45386</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45300</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45399</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>45579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>45376.50527777777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44986</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>45547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45337</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45461.61817129629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45338</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45338</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45202</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45338</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45727.9189699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>45744</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45909</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>45455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>45910</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>45429</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44907</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45112</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>45474</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>45302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45337</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45933.43429398148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45323</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45338</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45461.61667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45891</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45891</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45566.55065972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45861.34115740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45863</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45324</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44578.48868055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44578.49351851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45412</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45966</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45981.26616898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45940</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44641.53417824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44320</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45112.82001157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45546</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44344</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>46003</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45414</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45009</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45940</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>46003.36383101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>46045.69024305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>46049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44952</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>46049.33274305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45628.66327546296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45375.71997685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>46045</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46053</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45457</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>46057.43400462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>45329</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>46000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         <v>44998.55116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>45162</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>45429</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>45418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45574.53934027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45469</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>45211</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>45706</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44720.47737268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44888</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>45354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44830</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45453</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45328</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45385.55417824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45260</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45260.71196759259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45260.71628472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45323</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45679.63872685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45666.45462962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44999</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45749</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45532</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45532</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45727.88857638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>45727.90560185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>45419.50770833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45758</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45308</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45313</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         <v>44579</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>45386</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45300</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>45399</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>45579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>45376.50527777777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44986</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>45547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         <v>45399</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>45337</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         <v>45461.61817129629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>45338</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>45338</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>45202</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3559,7 +3559,7 @@
         <v>44749</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45299</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45338</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>45727.9189699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>45744</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>45909</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>45455</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>45910</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>45429</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44907</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4144,7 +4144,7 @@
         <v>45112</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>45474</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>45302</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>45337</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>45933.43429398148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>45323</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>45337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45338</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45461.61667824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45891</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45891</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45566.55065972222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45861.34115740741</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45863</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>45324</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44578.48868055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44578.49351851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45412</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>45966</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45488</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45981.26616898148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45940</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44641.53417824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44320</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         <v>45112.82001157408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45546</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6038,7 +6038,7 @@
         <v>44344</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>46003</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44991</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6219,7 +6219,7 @@
         <v>45414</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45009</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>45337</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         <v>45940</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         <v>46003.36383101852</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6566,7 +6566,7 @@
         <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6623,7 +6623,7 @@
         <v>46045.69024305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>46049</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>44952</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         <v>46049.33274305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>45628.66327546296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>45375.71997685185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45376</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>46045</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>46053</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>45457</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>46057.43400462963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>45329</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7347,7 +7347,7 @@
         <v>46000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7404,7 +7404,7 @@
         <v>44998.55116898148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>45162</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>45429</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7575,7 +7575,7 @@
         <v>45418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>45574.53934027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>45469</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>45104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>45211</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>45706</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>45334</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44720.47737268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8051,7 +8051,7 @@
         <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8108,7 +8108,7 @@
         <v>44888</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>45354</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         <v>44665</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>44384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8351,7 +8351,7 @@
         <v>44830</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8408,7 +8408,7 @@
         <v>45453</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>45328</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>45385.55417824074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,7 +8589,7 @@
         <v>45746</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
         <v>45260</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
         <v>45260.71196759259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>45260.71628472222</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>45323</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>45679.63872685185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
         <v>45666.45462962963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44999</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>45749</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>45532</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>45532</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>45727.88857638889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>45727.90560185185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>45419.50770833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>45791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>45758</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60809-2023</t>
+          <t>A 2018-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>17.2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Åkerkulla
+Västlig hakmossa
+Röd glada</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60809-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Gropticka
 Grovticka
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2018-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Åkerkulla
-Västlig hakmossa
-Röd glada</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9180-2021</t>
+          <t>A 12919-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44250</v>
+        <v>44642</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2300,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12919-2022</t>
+          <t>A 9180-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44642</v>
+        <v>44250</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45534</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,8 +2567,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2610,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2635,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>15.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2672,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45313</v>
+        <v>44344</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2686,8 +2691,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>14.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2734,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44579</v>
+        <v>45429</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2754,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2791,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45386</v>
+        <v>45202</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2838,14 +2848,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45300</v>
+        <v>45455</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2857,13 +2867,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>11.1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2900,14 +2905,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45399</v>
+        <v>45457</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2920,7 +2925,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2957,14 +2962,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45579</v>
+        <v>45313</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2982,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3014,14 +3019,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3035,11 +3040,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.3</v>
+        <v>11.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3076,14 +3081,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44986</v>
+        <v>45414</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3101,7 +3106,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7.7</v>
+        <v>4.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3138,14 +3143,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45547</v>
+        <v>45260</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3158,7 +3163,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3195,14 +3200,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45399</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3215,7 +3220,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3252,14 +3257,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45337</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3272,7 +3277,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>12.6</v>
+        <v>4.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3309,14 +3314,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45350</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,13 +3333,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45338</v>
+        <v>45408</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3390,13 +3390,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3433,14 +3428,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45338</v>
+        <v>44999</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3454,11 +3449,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3495,14 +3490,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45202</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3515,7 +3510,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3552,14 +3547,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44749</v>
+        <v>45337</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3572,7 +3567,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>12.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3609,14 +3604,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45299</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3630,11 +3625,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>67.40000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3671,14 +3666,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45338</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3692,11 +3687,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3733,14 +3728,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>44986</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,8 +3747,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>9.699999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3790,14 +3790,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45744</v>
+        <v>44888</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3847,14 +3847,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45909</v>
+        <v>45337</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.9</v>
+        <v>12.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3904,14 +3904,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45455</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,8 +3923,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3961,14 +3966,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45910</v>
+        <v>45009</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3981,7 +3986,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4018,14 +4023,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45429</v>
+        <v>45338</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4037,8 +4042,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>28.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4075,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44907</v>
+        <v>45744</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4094,13 +4104,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4137,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45112</v>
+        <v>45354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4167,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4199,14 +4204,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45474</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4216,6 +4221,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4256,14 +4266,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45302</v>
+        <v>45863</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,13 +4285,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>16.1</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4318,14 +4323,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45337</v>
+        <v>45386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4343,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4375,14 +4380,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45910</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4400,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4432,14 +4437,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45323</v>
+        <v>45909</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,13 +4456,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4494,14 +4494,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45337</v>
+        <v>44320</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,8 +4513,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4551,14 +4556,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45338</v>
+        <v>45474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,13 +4575,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>28.6</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4613,14 +4613,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45706</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4632,13 +4632,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4675,14 +4670,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45891</v>
+        <v>45749</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4695,7 +4690,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4732,14 +4727,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45891</v>
+        <v>45746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,7 +4747,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4789,14 +4784,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4846,14 +4841,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>44749</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4865,13 +4860,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4908,14 +4898,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45863</v>
+        <v>45299</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,8 +4917,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4965,14 +4960,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45324</v>
+        <v>45891</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,13 +4979,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>9.6</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5027,14 +5017,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45891</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5046,13 +5036,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5089,14 +5074,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,11 +5095,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>16.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5136,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44876</v>
+        <v>44952</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5171,7 +5156,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5193,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45385</v>
+        <v>45966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5213,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5250,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45412</v>
+        <v>45966</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5284,13 +5269,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5327,14 +5307,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45966</v>
+        <v>45323</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,8 +5326,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5384,14 +5369,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45966</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5403,8 +5388,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5441,14 +5431,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45488</v>
+        <v>45399</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5461,7 +5451,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.3</v>
+        <v>6.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5505,7 +5495,7 @@
         <v>45978</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5555,14 +5545,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>44579</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5565,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5612,14 +5602,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45408</v>
+        <v>45328</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5632,7 +5622,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5669,14 +5659,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45940</v>
+        <v>45488</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5689,7 +5679,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5726,14 +5716,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5745,13 +5735,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>12.4</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5788,14 +5773,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44320</v>
+        <v>45338</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5809,11 +5794,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5850,14 +5835,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45337</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5869,13 +5854,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5912,14 +5892,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45546</v>
+        <v>45104</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5933,11 +5913,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5974,14 +5954,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5994,7 +5974,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6031,14 +6011,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44344</v>
+        <v>44991</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6056,7 +6036,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>14.8</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6093,14 +6073,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46003</v>
+        <v>45112</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6112,8 +6092,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6150,14 +6135,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44991</v>
+        <v>46003</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6169,13 +6154,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6212,14 +6192,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45414</v>
+        <v>45940</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6231,13 +6211,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6274,14 +6249,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45009</v>
+        <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6294,7 +6269,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6331,14 +6306,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45337</v>
+        <v>45376</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6350,8 +6325,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6388,14 +6368,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45940</v>
+        <v>45408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6408,7 +6388,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6445,14 +6425,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45119</v>
+        <v>45940</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6465,7 +6445,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6502,14 +6482,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6522,7 +6502,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6559,14 +6539,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45408</v>
+        <v>45162</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6579,7 +6559,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6616,14 +6596,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6635,13 +6615,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>6.5</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6678,14 +6653,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46049</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6703,7 +6678,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6740,14 +6715,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44952</v>
+        <v>45211</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6760,7 +6735,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6797,14 +6772,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>46049</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6822,7 +6797,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6859,14 +6834,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>44907</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6878,8 +6853,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6916,14 +6896,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>44665</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6921,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6978,14 +6958,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45376</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +6983,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7047,7 +7027,7 @@
         <v>46045</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7102,14 +7082,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46053</v>
+        <v>45337</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7122,7 +7102,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7159,14 +7139,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45457</v>
+        <v>45299</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7178,8 +7158,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7216,14 +7201,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>46053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7235,13 +7220,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7278,14 +7258,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45329</v>
+        <v>45302</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7303,7 +7283,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>16.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7340,14 +7320,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46000</v>
+        <v>44830</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7360,7 +7340,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7397,14 +7377,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7416,8 +7396,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7454,14 +7439,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45162</v>
+        <v>44384</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7473,8 +7458,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7511,14 +7501,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45429</v>
+        <v>45469</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7531,7 +7521,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7575,7 +7565,7 @@
         <v>45418</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7630,14 +7620,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>46000</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7649,13 +7639,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>11.2</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7692,14 +7677,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45469</v>
+        <v>45453</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7711,8 +7696,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7749,14 +7739,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45104</v>
+        <v>45338</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7770,11 +7760,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7811,14 +7801,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45211</v>
+        <v>45338</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7830,8 +7820,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7868,14 +7863,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45706</v>
+        <v>45412</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7887,8 +7882,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7925,14 +7925,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45334</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>44720.47737268519</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8044,14 +8044,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45350</v>
+        <v>45329</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8063,8 +8063,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8101,14 +8106,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44888</v>
+        <v>45300</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8120,8 +8125,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8158,14 +8168,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45354</v>
+        <v>44876</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8177,13 +8187,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8220,14 +8225,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44665</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8239,13 +8244,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8282,14 +8282,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44384</v>
+        <v>45546</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8303,11 +8303,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8344,14 +8344,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44830</v>
+        <v>45429</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8401,14 +8401,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45453</v>
+        <v>45324</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8422,11 +8422,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>9.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8463,14 +8463,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45328</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,8 +8482,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>12.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8520,14 +8525,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>16.2</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8582,14 +8587,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45746</v>
+        <v>45534</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8602,7 +8607,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8639,14 +8644,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45260</v>
+        <v>45385</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8659,7 +8664,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8696,14 +8701,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45399</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8721,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8753,14 +8758,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8772,8 +8777,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8810,14 +8820,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45323</v>
+        <v>45334</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8829,13 +8839,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>15.2</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8872,14 +8877,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8893,11 +8898,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8934,14 +8939,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8959,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8991,14 +8996,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44999</v>
+        <v>45532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9010,13 +9015,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9053,14 +9053,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45749</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9110,14 +9110,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45532</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9167,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45532</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9224,14 +9224,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45791</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9281,14 +9281,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45758</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9338,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9395,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45791</v>
+        <v>45579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>10.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45758</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2018-2024</t>
+          <t>A 60809-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Gropticka
+Grovticka
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2018-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Åkerkulla
 Västlig hakmossa
 Röd glada</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60809-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka
-Grovticka
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12919-2022</t>
+          <t>A 9180-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44642</v>
+        <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2300,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9180-2021</t>
+          <t>A 12919-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44250</v>
+        <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,13 +2567,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2610,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2629,13 +2624,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>15.2</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2672,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44344</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2697,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2734,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45429</v>
+        <v>45746</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2754,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2791,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45202</v>
+        <v>45260</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2811,7 +2801,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2848,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45455</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2868,7 +2858,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2905,14 +2895,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45457</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2925,7 +2915,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2962,14 +2952,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45313</v>
+        <v>45323</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,8 +2971,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>15.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3019,14 +3014,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45337</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3038,13 +3033,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3081,14 +3071,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45414</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3106,7 +3096,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3143,14 +3133,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45260</v>
+        <v>45299</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3162,8 +3152,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3200,14 +3195,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3220,7 +3215,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3257,14 +3252,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>44999</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3276,8 +3271,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3314,14 +3314,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45350</v>
+        <v>45744</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3371,14 +3371,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45408</v>
+        <v>45749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44999</v>
+        <v>45532</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3447,13 +3447,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3490,14 +3485,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45909</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3510,7 +3505,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3547,14 +3542,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45337</v>
+        <v>45532</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3567,7 +3562,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>12.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3604,14 +3599,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45313</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3623,13 +3618,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3666,14 +3656,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>45386</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3685,13 +3675,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3728,14 +3713,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44986</v>
+        <v>44579</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3747,13 +3732,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3790,14 +3770,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44888</v>
+        <v>45300</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3809,8 +3789,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3847,14 +3832,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45337</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3867,7 +3852,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.6</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3904,14 +3889,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3923,13 +3908,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3966,14 +3946,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45009</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3966,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4023,14 +4003,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45338</v>
+        <v>45910</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,13 +4022,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>28.6</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4060,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45744</v>
+        <v>45399</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4105,7 +4080,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4142,14 +4117,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45354</v>
+        <v>45791</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4161,13 +4136,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4204,14 +4174,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4229,7 +4199,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>6.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4266,14 +4236,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45863</v>
+        <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4285,8 +4255,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4323,14 +4298,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45386</v>
+        <v>45399</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4318,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4380,14 +4355,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45910</v>
+        <v>45758</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4375,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4437,14 +4412,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45909</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4456,8 +4431,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4494,14 +4474,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44320</v>
+        <v>45579</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4513,13 +4493,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>10.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4556,14 +4531,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45474</v>
+        <v>45547</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4551,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4613,14 +4588,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45706</v>
+        <v>45338</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4632,8 +4607,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4670,14 +4650,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45749</v>
+        <v>45338</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4689,8 +4669,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4727,14 +4712,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45746</v>
+        <v>45202</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4747,7 +4732,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4784,14 +4769,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>44749</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4804,7 +4789,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4841,14 +4826,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44749</v>
+        <v>45299</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4860,8 +4845,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4898,14 +4888,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45299</v>
+        <v>45338</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4919,11 +4909,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>67.40000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4960,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45891</v>
+        <v>45474</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4980,7 +4970,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5017,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45891</v>
+        <v>45455</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5037,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5074,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5093,13 +5083,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>16.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5136,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44952</v>
+        <v>45429</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5156,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5193,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45966</v>
+        <v>44907</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5212,8 +5197,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5250,14 +5240,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45966</v>
+        <v>45112</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5269,8 +5259,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5307,14 +5302,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45323</v>
+        <v>45337</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5326,13 +5321,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>12.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5369,14 +5359,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5388,13 +5378,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5431,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45399</v>
+        <v>45302</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5450,8 +5435,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>6.9</v>
+        <v>16.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5488,14 +5478,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45978</v>
+        <v>45323</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5507,8 +5497,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5545,14 +5540,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44579</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5564,8 +5559,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5602,14 +5602,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45328</v>
+        <v>45337</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5659,14 +5659,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45488</v>
+        <v>45338</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5678,8 +5678,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>28.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5716,14 +5721,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5735,8 +5740,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5773,14 +5783,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45338</v>
+        <v>45863</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5792,13 +5802,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5835,14 +5840,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45337</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5855,7 +5860,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5892,14 +5897,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45104</v>
+        <v>45891</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5911,13 +5916,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5954,14 +5954,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45940</v>
+        <v>45891</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6011,14 +6011,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44991</v>
+        <v>45324</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6073,14 +6073,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45112</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6094,11 +6094,11 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6135,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46003</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,8 +6154,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6192,14 +6197,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45940</v>
+        <v>44876</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6212,7 +6217,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6249,14 +6254,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45119</v>
+        <v>45385</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6269,7 +6274,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6306,14 +6311,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45376</v>
+        <v>45412</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6331,7 +6336,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6368,14 +6373,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45408</v>
+        <v>45488</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6388,7 +6393,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6425,14 +6430,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45940</v>
+        <v>45966</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6445,7 +6450,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6482,14 +6487,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45966</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6502,7 +6507,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6539,14 +6544,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45162</v>
+        <v>45408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6559,7 +6564,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6596,14 +6601,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45978</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6616,7 +6621,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6653,14 +6658,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6672,13 +6677,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6715,14 +6715,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45211</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,8 +6734,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>12.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6772,14 +6777,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46049</v>
+        <v>44320</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6797,7 +6802,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6834,14 +6839,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44907</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6859,7 +6864,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6896,14 +6901,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44665</v>
+        <v>45546</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6917,11 +6922,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6958,14 +6963,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45940</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6977,13 +6982,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7020,14 +7020,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46045</v>
+        <v>44344</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>14.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7082,14 +7082,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45337</v>
+        <v>45414</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7101,8 +7101,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7139,14 +7144,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45299</v>
+        <v>45009</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7158,13 +7163,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7201,14 +7201,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46053</v>
+        <v>45940</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7258,14 +7258,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45302</v>
+        <v>46003</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7277,13 +7277,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>16.1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7320,14 +7315,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44830</v>
+        <v>44991</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7339,8 +7334,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7377,14 +7377,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45337</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7396,13 +7396,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7439,14 +7434,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44384</v>
+        <v>45940</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7458,13 +7453,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7501,14 +7491,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45469</v>
+        <v>45119</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7521,7 +7511,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7558,14 +7548,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45418</v>
+        <v>45408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7577,13 +7567,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7620,14 +7605,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46000</v>
+        <v>44952</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7640,7 +7625,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7677,14 +7662,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45453</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7696,13 +7681,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7739,14 +7719,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45338</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7758,13 +7738,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7801,14 +7776,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45338</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7822,11 +7797,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7863,14 +7838,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45412</v>
+        <v>46049</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7863,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7925,14 +7900,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7944,8 +7919,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7982,14 +7962,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45376</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8007,7 +7987,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.3</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8044,14 +8024,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45329</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8069,7 +8049,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8106,14 +8086,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45300</v>
+        <v>45457</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8125,13 +8105,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>11.1</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8168,14 +8143,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44876</v>
+        <v>46045</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8187,8 +8162,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8225,14 +8205,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45329</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8244,8 +8224,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8282,14 +8267,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45546</v>
+        <v>46053</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8301,13 +8286,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8344,14 +8324,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45429</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8363,8 +8343,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8401,14 +8386,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45324</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,13 +8405,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8463,14 +8443,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>45162</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8482,13 +8462,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>12.4</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8525,14 +8500,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45429</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8544,13 +8519,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8587,14 +8557,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45534</v>
+        <v>45418</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8606,8 +8576,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8644,14 +8619,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45385</v>
+        <v>46000</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8664,7 +8639,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>9.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8701,14 +8676,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45399</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8720,8 +8695,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>11.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8758,14 +8738,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45469</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8777,13 +8757,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8820,14 +8795,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45334</v>
+        <v>45104</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8839,8 +8814,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8877,14 +8857,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45211</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8896,13 +8876,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8939,14 +8914,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45532</v>
+        <v>45706</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8959,7 +8934,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8996,14 +8971,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45532</v>
+        <v>45334</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9016,7 +8991,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9053,14 +9028,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9072,8 +9047,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9110,14 +9090,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45350</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9130,7 +9110,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9167,14 +9147,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>44888</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9187,7 +9167,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9224,14 +9204,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45791</v>
+        <v>45354</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9243,8 +9223,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9281,14 +9266,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45758</v>
+        <v>44665</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9300,8 +9285,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9338,14 +9328,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45547</v>
+        <v>44384</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9357,8 +9347,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9395,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45579</v>
+        <v>44830</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9415,7 +9410,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>10.1</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9447,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45453</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9471,8 +9466,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60809-2023</t>
+          <t>A 2018-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>17.2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Åkerkulla
+Västlig hakmossa
+Röd glada</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60809-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Gropticka
 Grovticka
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2018-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Åkerkulla
-Västlig hakmossa
-Röd glada</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,14 +1232,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 42330-2025</t>
+          <t>A 26958-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45903</v>
+        <v>45811.4569212963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1286,298 +1286,298 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Murgröna</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 26958-2025 artfynd.xlsx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 26958-2025 karta.png", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 26958-2025 FSC-klagomål.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 26958-2025 FSC-klagomål mail.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 26958-2025 tillsynsbegäran.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 26958-2025 tillsynsbegäran mail.docx", "A 26958-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 60820-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Guldlockmossa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60820-2023 artfynd.xlsx", "A 60820-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60820-2023 karta.png", "A 60820-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60820-2023 FSC-klagomål.docx", "A 60820-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60820-2023 FSC-klagomål mail.docx", "A 60820-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60820-2023 tillsynsbegäran.docx", "A 60820-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60820-2023 tillsynsbegäran mail.docx", "A 60820-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 756-2024</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Borsttåg</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 756-2024 artfynd.xlsx", "A 756-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 756-2024 karta.png", "A 756-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 756-2024 FSC-klagomål.docx", "A 756-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 756-2024 FSC-klagomål mail.docx", "A 756-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 756-2024 tillsynsbegäran.docx", "A 756-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 756-2024 tillsynsbegäran mail.docx", "A 756-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 42330-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45903</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Törnskata</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 42330-2025 artfynd.xlsx", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 42330-2025 karta.png", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 42330-2025 FSC-klagomål.docx", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 42330-2025 FSC-klagomål mail.docx", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 42330-2025 tillsynsbegäran.docx", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 42330-2025 tillsynsbegäran mail.docx", "A 42330-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 42330-2025 prioriterade fågelarter.docx", "A 42330-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 26958-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45811.4569212963</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 26958-2025 artfynd.xlsx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 26958-2025 karta.png", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 26958-2025 FSC-klagomål.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 26958-2025 FSC-klagomål mail.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 26958-2025 tillsynsbegäran.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 26958-2025 tillsynsbegäran mail.docx", "A 26958-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 60820-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Guldlockmossa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60820-2023 artfynd.xlsx", "A 60820-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60820-2023 karta.png", "A 60820-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60820-2023 FSC-klagomål.docx", "A 60820-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60820-2023 FSC-klagomål mail.docx", "A 60820-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60820-2023 tillsynsbegäran.docx", "A 60820-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60820-2023 tillsynsbegäran mail.docx", "A 60820-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 756-2024</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45300</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Borsttåg</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 756-2024 artfynd.xlsx", "A 756-2024")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 756-2024 karta.png", "A 756-2024")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 756-2024 FSC-klagomål.docx", "A 756-2024")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 756-2024 FSC-klagomål mail.docx", "A 756-2024")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 756-2024 tillsynsbegäran.docx", "A 756-2024")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 756-2024 tillsynsbegäran mail.docx", "A 756-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9180-2021</t>
+          <t>A 35140-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44250</v>
+        <v>44384</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2300,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12919-2022</t>
+          <t>A 23461-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44642</v>
+        <v>44721</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2424,14 +2424,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35140-2021</t>
+          <t>A 9180-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44384</v>
+        <v>44250</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 23461-2022</t>
+          <t>A 12919-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44721</v>
+        <v>44642</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45534</v>
+        <v>45299</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,8 +2567,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2610,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45328</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,8 +2629,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>16.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2672,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2683,11 +2693,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>16.2</v>
+        <v>11.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2734,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45746</v>
+        <v>45202</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2754,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2791,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45260</v>
+        <v>45323</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2800,8 +2810,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>15.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2838,14 +2853,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2857,8 +2872,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2895,14 +2915,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2912,6 +2932,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2952,14 +2977,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45323</v>
+        <v>44344</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +3002,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3014,14 +3039,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45337</v>
+        <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3059,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.6</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3071,14 +3096,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45429</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3090,13 +3115,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3133,14 +3153,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45299</v>
+        <v>45323</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3158,7 +3178,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3195,14 +3215,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3215,7 +3235,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3252,14 +3272,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44999</v>
+        <v>45455</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3271,13 +3291,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3314,14 +3329,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45744</v>
+        <v>45408</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3334,7 +3349,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3371,14 +3386,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45749</v>
+        <v>44999</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3390,8 +3405,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3428,14 +3448,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45532</v>
+        <v>45260</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3448,7 +3468,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3485,14 +3505,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45909</v>
+        <v>45457</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3505,7 +3525,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3542,14 +3562,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45532</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3562,7 +3582,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3599,14 +3619,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45313</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3619,7 +3639,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3656,14 +3676,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45386</v>
+        <v>45350</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3676,7 +3696,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3713,14 +3733,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44579</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3732,8 +3752,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3770,14 +3795,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3789,13 +3814,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3832,14 +3852,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3852,7 +3872,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3889,14 +3909,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45399</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3909,7 +3929,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3946,14 +3966,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>44579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3966,7 +3986,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4003,14 +4023,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45910</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4022,8 +4042,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4060,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45399</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4079,8 +4104,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4117,14 +4147,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45791</v>
+        <v>45328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4137,7 +4167,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4174,14 +4204,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45488</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4193,13 +4223,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>6.3</v>
+        <v>4.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4243,7 +4268,7 @@
         <v>44986</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4298,14 +4323,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45399</v>
+        <v>44888</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4318,7 +4343,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4355,14 +4380,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45758</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4375,7 +4400,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4412,14 +4437,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4433,11 +4458,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4474,14 +4499,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45579</v>
+        <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4519,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>10.1</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4531,14 +4556,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45547</v>
+        <v>45338</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4550,8 +4575,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>28.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4588,14 +4618,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>45338</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4613,7 +4643,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4650,14 +4680,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4669,13 +4699,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4712,14 +4737,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45202</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4731,8 +4756,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4769,14 +4799,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44749</v>
+        <v>45104</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4788,8 +4818,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>6.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4826,14 +4861,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45299</v>
+        <v>45112</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,7 +4886,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>67.40000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4923,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45338</v>
+        <v>45354</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4909,11 +4944,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,14 +4985,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45474</v>
+        <v>45329</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4969,8 +5004,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5047,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45455</v>
+        <v>45337</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5067,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>12.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5104,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45300</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5083,8 +5123,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5166,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45429</v>
+        <v>45386</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5186,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5223,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44907</v>
+        <v>45119</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5197,13 +5242,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5240,14 +5280,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45112</v>
+        <v>45376</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5265,7 +5305,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5302,14 +5342,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45337</v>
+        <v>44876</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5322,7 +5362,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.6</v>
+        <v>2.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5359,14 +5399,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5379,7 +5419,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5416,14 +5456,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45302</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5435,13 +5475,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>16.1</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5478,14 +5513,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45323</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5497,13 +5532,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5540,14 +5570,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45546</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5561,11 +5591,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5602,14 +5632,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45337</v>
+        <v>45429</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5622,7 +5652,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5659,14 +5689,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45338</v>
+        <v>45162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5678,13 +5708,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>28.6</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5721,14 +5746,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5742,11 +5767,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5783,14 +5808,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45863</v>
+        <v>44320</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5802,8 +5827,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5840,14 +5870,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45863</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5860,7 +5890,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5897,14 +5927,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45891</v>
+        <v>45211</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5917,7 +5947,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5954,14 +5984,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45891</v>
+        <v>44907</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5973,8 +6003,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6011,14 +6046,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45324</v>
+        <v>44665</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6071,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>9.6</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6073,14 +6108,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45706</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6092,13 +6127,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6165,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>45749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,13 +6184,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6197,14 +6222,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44876</v>
+        <v>45337</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6217,7 +6242,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6254,14 +6279,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45385</v>
+        <v>45299</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6273,8 +6298,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>9.199999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6311,14 +6341,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45412</v>
+        <v>45302</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6336,7 +6366,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>16.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6373,14 +6403,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45488</v>
+        <v>45746</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6393,7 +6423,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6430,14 +6460,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45966</v>
+        <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6450,7 +6480,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6487,14 +6517,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45966</v>
+        <v>45324</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6506,8 +6536,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6544,14 +6579,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45408</v>
+        <v>44384</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6563,8 +6598,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6601,14 +6641,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45978</v>
+        <v>45469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6621,7 +6661,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6658,14 +6698,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6677,8 +6717,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6715,14 +6760,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>44749</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6734,13 +6779,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>12.4</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6777,14 +6817,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44320</v>
+        <v>45453</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6798,11 +6838,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6839,14 +6879,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45337</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6858,13 +6898,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>12.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6901,14 +6936,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45546</v>
+        <v>45338</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6922,11 +6957,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6963,14 +6998,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45940</v>
+        <v>45338</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6982,8 +7017,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7020,14 +7060,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44344</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7045,7 +7085,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>14.8</v>
+        <v>12.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7082,14 +7122,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45414</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7107,7 +7147,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7144,14 +7184,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45009</v>
+        <v>45412</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7163,8 +7203,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7201,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45940</v>
+        <v>45534</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7258,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46003</v>
+        <v>45385</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7278,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7315,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44991</v>
+        <v>45399</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7334,13 +7379,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7377,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45337</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7396,8 +7436,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7434,14 +7479,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45940</v>
+        <v>45744</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7454,7 +7499,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7491,14 +7536,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45119</v>
+        <v>45334</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7511,7 +7556,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.8</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7548,14 +7593,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45408</v>
+        <v>45910</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7568,7 +7613,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7605,14 +7650,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44952</v>
+        <v>45909</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7625,7 +7670,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7662,14 +7707,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7681,8 +7726,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7719,14 +7769,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45532</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7739,7 +7789,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7776,14 +7826,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45474</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7795,13 +7845,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7838,14 +7883,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46049</v>
+        <v>45532</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7857,13 +7902,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7900,14 +7940,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7919,13 +7959,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7962,14 +7997,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45376</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7981,13 +8016,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8024,14 +8054,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8041,11 +8071,6 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -8086,14 +8111,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45457</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8106,7 +8131,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8143,14 +8168,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>46045</v>
+        <v>45791</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8162,13 +8187,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8205,14 +8225,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45329</v>
+        <v>45891</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8224,13 +8244,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8267,14 +8282,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46053</v>
+        <v>45891</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8287,7 +8302,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8324,14 +8339,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45758</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8343,13 +8358,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8386,14 +8396,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45547</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8406,7 +8416,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8443,14 +8453,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45162</v>
+        <v>45579</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8463,7 +8473,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>10.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8500,14 +8510,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45429</v>
+        <v>45966</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8520,7 +8530,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8557,14 +8567,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45418</v>
+        <v>45966</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8576,13 +8586,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8619,14 +8624,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46000</v>
+        <v>45978</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8639,7 +8644,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8676,14 +8681,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8695,13 +8700,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>11.2</v>
+        <v>2.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8738,14 +8738,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45469</v>
+        <v>45940</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8795,14 +8795,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45104</v>
+        <v>44991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8857,14 +8857,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45211</v>
+        <v>46003</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8914,14 +8914,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45706</v>
+        <v>45940</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8971,14 +8971,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45334</v>
+        <v>45940</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9028,14 +9028,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9047,13 +9047,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9090,14 +9085,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45350</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9109,8 +9104,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9147,14 +9147,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44888</v>
+        <v>46049</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,8 +9166,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9204,14 +9209,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45354</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9229,7 +9234,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9266,14 +9271,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44665</v>
+        <v>46045</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9291,7 +9296,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9328,14 +9333,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44384</v>
+        <v>46053</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9347,13 +9352,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44830</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,8 +9409,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9447,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45453</v>
+        <v>46000</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9464,11 +9469,6 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2018-2024</t>
+          <t>A 60809-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Gropticka
+Grovticka
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2018-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Åkerkulla
 Västlig hakmossa
 Röd glada</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60809-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka
-Grovticka
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,14 +1232,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 26958-2025</t>
+          <t>A 42330-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45811.4569212963</v>
+        <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1252,13 +1252,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1286,298 +1286,298 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Törnskata</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 42330-2025 artfynd.xlsx", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 42330-2025 karta.png", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 42330-2025 FSC-klagomål.docx", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 42330-2025 FSC-klagomål mail.docx", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 42330-2025 tillsynsbegäran.docx", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 42330-2025 tillsynsbegäran mail.docx", "A 42330-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 42330-2025 prioriterade fågelarter.docx", "A 42330-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 26958-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45811.4569212963</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Murgröna</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 26958-2025 artfynd.xlsx", "A 26958-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 26958-2025 karta.png", "A 26958-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 26958-2025 FSC-klagomål.docx", "A 26958-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 26958-2025 FSC-klagomål mail.docx", "A 26958-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 26958-2025 tillsynsbegäran.docx", "A 26958-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 26958-2025 tillsynsbegäran mail.docx", "A 26958-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 60820-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45260</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>4.6</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Guldlockmossa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60820-2023 artfynd.xlsx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60820-2023 karta.png", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60820-2023 FSC-klagomål.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60820-2023 FSC-klagomål mail.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60820-2023 tillsynsbegäran.docx", "A 60820-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60820-2023 tillsynsbegäran mail.docx", "A 60820-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 756-2024</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45300</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>13.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Borsttåg</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 756-2024 artfynd.xlsx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 756-2024 karta.png", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 756-2024 FSC-klagomål.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 756-2024 FSC-klagomål mail.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 756-2024 tillsynsbegäran.docx", "A 756-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 756-2024 tillsynsbegäran mail.docx", "A 756-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 42330-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45903</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Törnskata</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 42330-2025 artfynd.xlsx", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 42330-2025 karta.png", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 42330-2025 FSC-klagomål.docx", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 42330-2025 FSC-klagomål mail.docx", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 42330-2025 tillsynsbegäran.docx", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 42330-2025 tillsynsbegäran mail.docx", "A 42330-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 42330-2025 prioriterade fågelarter.docx", "A 42330-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2238,14 +2238,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35140-2021</t>
+          <t>A 9180-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44384</v>
+        <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2300,14 +2300,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 23461-2022</t>
+          <t>A 12919-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44721</v>
+        <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2424,14 +2424,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 9180-2021</t>
+          <t>A 35140-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44250</v>
+        <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2486,14 +2486,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12919-2022</t>
+          <t>A 23461-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44642</v>
+        <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45299</v>
+        <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2567,13 +2567,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>67.40000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2610,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2635,7 +2630,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>16.2</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2672,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45313</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2691,13 +2686,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>11.2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2734,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45202</v>
+        <v>45386</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2791,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45323</v>
+        <v>45758</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2810,13 +2800,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>15.2</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2853,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>44579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2872,13 +2857,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2915,14 +2895,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45414</v>
+        <v>45300</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2940,7 +2920,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.3</v>
+        <v>11.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2977,14 +2957,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44344</v>
+        <v>45579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2996,13 +2976,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>14.8</v>
+        <v>10.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3039,14 +3014,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44952</v>
+        <v>45399</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3034,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3096,14 +3071,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45429</v>
+        <v>45547</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3091,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3153,14 +3128,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45323</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3178,7 +3153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>6.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3215,14 +3190,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>44986</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3234,8 +3209,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3272,14 +3252,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45455</v>
+        <v>45337</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3272,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>12.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3329,14 +3309,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45408</v>
+        <v>46000</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3349,7 +3329,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3386,14 +3366,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44999</v>
+        <v>45399</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3405,13 +3385,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>6.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3448,14 +3423,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45260</v>
+        <v>46053</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3443,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3505,14 +3480,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45457</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3524,8 +3499,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3562,14 +3542,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45338</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3581,8 +3561,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3619,14 +3604,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3638,8 +3623,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3676,14 +3666,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45350</v>
+        <v>45202</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3696,7 +3686,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3733,14 +3723,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3752,13 +3742,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3795,14 +3780,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45313</v>
+        <v>44749</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3800,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3852,14 +3837,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45299</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3871,8 +3856,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3909,14 +3899,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45399</v>
+        <v>45338</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3928,8 +3918,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>6.9</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3966,14 +3961,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44579</v>
+        <v>45455</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3986,7 +3981,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4023,14 +4018,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45337</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,13 +4037,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>12.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4075,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>45429</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4104,13 +4094,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4147,14 +4132,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45328</v>
+        <v>44907</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4166,8 +4151,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4204,14 +4194,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45488</v>
+        <v>45112</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4223,8 +4213,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4261,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44986</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4286,7 +4281,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4323,14 +4318,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44888</v>
+        <v>45744</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4343,7 +4338,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4380,14 +4375,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45863</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4400,7 +4395,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4437,14 +4432,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45302</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4457,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>16.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4499,14 +4494,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45009</v>
+        <v>45909</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4514,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4556,14 +4551,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45338</v>
+        <v>45323</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4581,7 +4576,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>28.6</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4618,14 +4613,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45338</v>
+        <v>45910</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4637,13 +4632,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4680,14 +4670,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>45337</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4700,7 +4690,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4737,14 +4727,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45338</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4762,7 +4752,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.3</v>
+        <v>28.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4799,14 +4789,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45104</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4820,11 +4810,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4861,14 +4851,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45112</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4880,13 +4870,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4923,14 +4908,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45354</v>
+        <v>45474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4942,13 +4927,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4985,14 +4965,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45329</v>
+        <v>45324</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5010,7 +4990,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.7</v>
+        <v>9.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5047,14 +5027,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45337</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5066,8 +5046,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>12.6</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5104,14 +5089,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45300</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5125,11 +5110,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5166,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45386</v>
+        <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5186,7 +5171,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5223,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45119</v>
+        <v>45385</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5243,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5280,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45376</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,13 +5284,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5342,14 +5322,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44876</v>
+        <v>45412</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5361,8 +5341,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5399,14 +5384,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45408</v>
+        <v>45488</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5419,7 +5404,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5456,14 +5441,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45891</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5476,7 +5461,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5513,14 +5498,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45891</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5533,7 +5518,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5570,14 +5555,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45546</v>
+        <v>45408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,13 +5574,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5632,14 +5612,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45429</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5651,8 +5631,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5689,14 +5674,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45162</v>
+        <v>44320</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5708,8 +5693,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5746,14 +5736,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5771,7 +5761,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5808,14 +5798,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44320</v>
+        <v>45546</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5829,11 +5819,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5870,14 +5860,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45863</v>
+        <v>44344</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5889,8 +5879,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>14.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5927,14 +5922,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45211</v>
+        <v>45414</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5946,8 +5941,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5984,14 +5984,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44907</v>
+        <v>45009</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6003,13 +6003,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6046,14 +6041,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44665</v>
+        <v>45337</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6065,13 +6060,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6108,14 +6098,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45706</v>
+        <v>45966</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6128,7 +6118,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6165,14 +6155,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45749</v>
+        <v>45966</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6185,7 +6175,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6222,14 +6212,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45337</v>
+        <v>45978</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6242,7 +6232,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6279,14 +6269,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45299</v>
+        <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6298,13 +6288,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6341,14 +6326,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45302</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6360,13 +6345,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>16.1</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6403,14 +6383,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45746</v>
+        <v>45408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6460,14 +6440,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44830</v>
+        <v>44952</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6480,7 +6460,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6517,14 +6497,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45324</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6536,13 +6516,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6579,14 +6554,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44384</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6604,7 +6579,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6641,14 +6616,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45469</v>
+        <v>45376</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6658,6 +6633,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -6698,14 +6678,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45418</v>
+        <v>45940</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6717,13 +6697,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6760,14 +6735,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44749</v>
+        <v>45457</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6780,7 +6755,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6817,14 +6792,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45453</v>
+        <v>45940</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6836,13 +6811,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6879,14 +6849,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45337</v>
+        <v>45329</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6898,8 +6868,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>12.6</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6936,14 +6911,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45338</v>
+        <v>46003</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6955,13 +6930,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6998,14 +6968,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45338</v>
+        <v>44991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7019,11 +6989,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7060,14 +7030,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7079,13 +7049,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>12.4</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7122,14 +7087,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45940</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7141,13 +7106,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7184,14 +7144,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45412</v>
+        <v>45162</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7203,13 +7163,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7201,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45534</v>
+        <v>45429</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7221,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7258,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45385</v>
+        <v>45418</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7322,8 +7277,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>9.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7320,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45399</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7379,8 +7339,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>11.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7382,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7436,13 +7401,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7479,14 +7439,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45744</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7498,8 +7458,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7536,14 +7501,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45334</v>
+        <v>46049</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7555,8 +7520,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7593,14 +7563,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45910</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7612,8 +7582,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7650,14 +7625,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45909</v>
+        <v>45469</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7670,7 +7645,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7707,14 +7682,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>46045</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7728,11 +7703,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7769,14 +7744,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45532</v>
+        <v>45104</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7788,8 +7763,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7826,14 +7806,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45474</v>
+        <v>45211</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7846,7 +7826,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7883,14 +7863,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45532</v>
+        <v>45706</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7903,7 +7883,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7940,14 +7920,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7959,8 +7939,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7997,14 +7982,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45334</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8017,7 +8002,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8054,14 +8039,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8073,8 +8058,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8111,14 +8101,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45350</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8131,7 +8121,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8168,14 +8158,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45791</v>
+        <v>44888</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8188,7 +8178,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8225,14 +8215,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45891</v>
+        <v>45354</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8244,8 +8234,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8282,14 +8277,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45891</v>
+        <v>44665</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8301,8 +8296,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8339,14 +8339,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45758</v>
+        <v>44384</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8358,8 +8358,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8396,14 +8401,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45547</v>
+        <v>44830</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8453,14 +8458,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45579</v>
+        <v>45453</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8472,8 +8477,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>10.1</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8510,14 +8520,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45966</v>
+        <v>45328</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8530,7 +8540,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8567,14 +8577,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45966</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8586,8 +8596,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>16.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8624,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45978</v>
+        <v>45746</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8681,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45260</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8701,7 +8716,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8738,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45940</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8758,7 +8773,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8795,14 +8810,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44991</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8814,13 +8829,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8857,14 +8867,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46003</v>
+        <v>45323</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8876,8 +8886,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8914,14 +8929,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45940</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8933,8 +8948,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8971,14 +8991,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45940</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8991,7 +9011,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9028,14 +9048,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>44999</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9047,8 +9067,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9085,14 +9110,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45749</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9104,13 +9129,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9147,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46049</v>
+        <v>45532</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9166,13 +9186,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9209,14 +9224,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45532</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9228,13 +9243,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9271,14 +9281,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>46045</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9290,13 +9300,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9333,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46053</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9353,7 +9358,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9409,13 +9414,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>46000</v>
+        <v>45791</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45308</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2667,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45313</v>
+        <v>45791</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45386</v>
+        <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>12.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45758</v>
+        <v>45313</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2838,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44579</v>
+        <v>45386</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2895,14 +2895,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45300</v>
+        <v>45758</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2914,13 +2914,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>11.1</v>
+        <v>3.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2957,14 +2952,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45579</v>
+        <v>44579</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2977,7 +2972,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3014,14 +3009,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45399</v>
+        <v>45579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3034,7 +3029,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>10.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3071,14 +3066,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45547</v>
+        <v>45300</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3090,8 +3085,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>11.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3128,14 +3128,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45547</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3147,13 +3147,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3190,14 +3185,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44986</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3209,13 +3204,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3252,14 +3242,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45337</v>
+        <v>45399</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3272,7 +3262,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>12.6</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3309,14 +3299,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46000</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3328,8 +3318,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.8</v>
+        <v>6.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3366,14 +3361,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45399</v>
+        <v>44986</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3385,8 +3380,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3423,14 +3423,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>46053</v>
+        <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3480,14 +3480,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3501,11 +3501,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45338</v>
+        <v>46049</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3563,11 +3563,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3604,14 +3604,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45338</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3666,14 +3666,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45202</v>
+        <v>45744</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>45727.9189699074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3780,14 +3780,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44749</v>
+        <v>45909</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3837,14 +3837,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45299</v>
+        <v>45338</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,11 +3858,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>67.40000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3899,14 +3899,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>45338</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3961,14 +3961,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45455</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,8 +3980,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4018,14 +4023,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45337</v>
+        <v>45202</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4038,7 +4043,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4075,14 +4080,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45429</v>
+        <v>45910</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4095,7 +4100,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4132,14 +4137,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44907</v>
+        <v>44749</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4151,13 +4156,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4194,14 +4194,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45112</v>
+        <v>45299</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>46045</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4318,14 +4318,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45744</v>
+        <v>45338</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4337,8 +4337,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4375,14 +4380,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45863</v>
+        <v>45337</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4400,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>12.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4432,14 +4437,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45302</v>
+        <v>45474</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4451,13 +4456,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>16.1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4494,14 +4494,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45909</v>
+        <v>45455</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4551,14 +4551,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45323</v>
+        <v>45429</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4570,13 +4570,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4613,14 +4608,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45910</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4633,7 +4628,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4670,14 +4665,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45337</v>
+        <v>44907</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4689,8 +4684,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4727,14 +4727,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45338</v>
+        <v>45112</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>28.6</v>
+        <v>2.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4789,14 +4789,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4810,11 +4810,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45863</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45474</v>
+        <v>45891</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45324</v>
+        <v>45302</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>9.6</v>
+        <v>16.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5027,14 +5027,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45891</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5046,13 +5046,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5089,14 +5084,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5110,11 +5105,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5151,14 +5146,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44876</v>
+        <v>45323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5170,8 +5165,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45385</v>
+        <v>45337</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45338</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5284,8 +5284,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>28.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5322,14 +5327,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45412</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5343,11 +5348,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5384,14 +5389,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45488</v>
+        <v>45966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5404,7 +5409,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5441,14 +5446,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45891</v>
+        <v>45966</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5461,7 +5466,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5498,14 +5503,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45891</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5518,7 +5523,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5555,14 +5560,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45408</v>
+        <v>46053</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5575,7 +5580,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5612,14 +5617,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>45978</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5631,13 +5636,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>12.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5674,14 +5674,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44320</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,13 +5693,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5736,14 +5731,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45324</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5761,7 +5756,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>9.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5798,14 +5793,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45546</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5823,7 +5818,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5860,14 +5855,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44344</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5881,11 +5876,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>14.8</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5922,14 +5917,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45414</v>
+        <v>45940</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5941,13 +5936,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5984,14 +5974,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45009</v>
+        <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6004,7 +5994,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6041,14 +6031,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45337</v>
+        <v>46000</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6061,7 +6051,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6098,14 +6088,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45966</v>
+        <v>44876</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6118,7 +6108,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6155,14 +6145,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45966</v>
+        <v>45385</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6175,7 +6165,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6212,14 +6202,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45978</v>
+        <v>45940</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6232,7 +6222,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6269,14 +6259,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45119</v>
+        <v>45412</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6288,8 +6278,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6326,14 +6321,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45488</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6346,7 +6341,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6383,14 +6378,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45408</v>
+        <v>46003</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6403,7 +6398,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6440,14 +6435,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44952</v>
+        <v>44991</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6459,8 +6454,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6497,14 +6497,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6554,14 +6554,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.7</v>
+        <v>12.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6616,14 +6616,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45376</v>
+        <v>44320</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6678,14 +6678,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45940</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6697,8 +6697,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6735,14 +6740,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45457</v>
+        <v>45546</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6754,8 +6759,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6792,14 +6802,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45940</v>
+        <v>44344</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6811,8 +6821,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>14.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6849,14 +6864,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45329</v>
+        <v>45414</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6874,7 +6889,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6911,14 +6926,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46003</v>
+        <v>45009</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6931,7 +6946,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6968,14 +6983,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44991</v>
+        <v>45337</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6987,13 +7002,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7030,14 +7040,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45119</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7050,7 +7060,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7087,14 +7097,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45940</v>
+        <v>45408</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7144,14 +7154,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45162</v>
+        <v>44952</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7164,7 +7174,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7201,14 +7211,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45429</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7221,7 +7231,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7258,14 +7268,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45418</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7283,7 +7293,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7320,14 +7330,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45376</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7341,11 +7351,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>11.2</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7382,14 +7392,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45457</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7412,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7439,14 +7449,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45329</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7474,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7501,14 +7511,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46049</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,13 +7530,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7563,14 +7568,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45162</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7582,13 +7587,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7625,14 +7625,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45469</v>
+        <v>45429</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7682,14 +7682,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46045</v>
+        <v>45418</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7744,14 +7744,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45104</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7765,11 +7765,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6.6</v>
+        <v>11.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7806,14 +7806,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45211</v>
+        <v>45469</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7863,14 +7863,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45706</v>
+        <v>45104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7882,8 +7882,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7920,14 +7925,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45211</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7939,13 +7944,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7982,14 +7982,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45334</v>
+        <v>45706</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8039,14 +8039,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45334</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8058,13 +8058,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8101,14 +8096,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45350</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8120,8 +8115,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.2</v>
+        <v>5.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8158,14 +8158,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44888</v>
+        <v>45350</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8215,14 +8215,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45354</v>
+        <v>44888</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8234,13 +8234,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8277,14 +8272,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44665</v>
+        <v>45354</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8302,7 +8297,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8339,14 +8334,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44384</v>
+        <v>44665</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8364,7 +8359,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8401,14 +8396,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44830</v>
+        <v>44384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8420,8 +8415,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8458,14 +8458,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45453</v>
+        <v>44830</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,13 +8477,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8520,14 +8515,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45328</v>
+        <v>45453</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8539,8 +8534,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8577,14 +8577,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45328</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,13 +8596,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>16.2</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8639,14 +8634,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45746</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8658,8 +8653,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>16.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8696,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45260</v>
+        <v>45746</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8753,14 +8753,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45260</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8810,14 +8810,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45323</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8886,13 +8886,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>15.2</v>
+        <v>4.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8929,14 +8924,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45323</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8954,7 +8949,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>15.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8991,14 +8986,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9010,8 +9005,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9048,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44999</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9067,13 +9067,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9110,14 +9105,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45749</v>
+        <v>44999</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9129,8 +9124,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9167,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45532</v>
+        <v>45749</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9224,14 +9224,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
         <v>45532</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9281,14 +9281,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45532</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9338,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9395,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45791</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>45308</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45299</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,13 +2624,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2662,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2687,7 +2682,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2724,14 +2719,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45337</v>
+        <v>45299</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2743,8 +2738,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>12.6</v>
+        <v>5.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45313</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2838,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45386</v>
+        <v>45337</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>12.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2895,14 +2895,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45758</v>
+        <v>45791</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2952,14 +2952,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44579</v>
+        <v>45758</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>45579</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3066,14 +3066,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3085,13 +3085,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3128,14 +3123,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45547</v>
+        <v>45386</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3148,7 +3143,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3185,14 +3180,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45547</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3242,14 +3237,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45399</v>
+        <v>45978</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3262,7 +3257,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3299,14 +3294,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>44579</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3318,13 +3313,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3361,14 +3351,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44986</v>
+        <v>45300</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3386,7 +3376,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.7</v>
+        <v>11.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3423,14 +3413,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>45399</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3443,7 +3433,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>6.9</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3480,14 +3470,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3499,13 +3489,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3542,14 +3527,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46049</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3567,7 +3552,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>6.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3604,14 +3589,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45744</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3623,13 +3608,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3666,14 +3646,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45744</v>
+        <v>44986</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3685,8 +3665,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3723,14 +3708,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45909</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3743,7 +3728,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3780,14 +3765,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45909</v>
+        <v>45399</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3800,7 +3785,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3837,14 +3822,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45338</v>
+        <v>45910</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3856,13 +3841,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3899,14 +3879,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45338</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3920,11 +3900,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3961,14 +3941,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3980,13 +3960,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4023,14 +3998,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45202</v>
+        <v>45338</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4042,8 +4017,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4080,14 +4060,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45910</v>
+        <v>45338</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4099,8 +4079,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4137,14 +4122,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44749</v>
+        <v>45202</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4157,7 +4142,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4194,14 +4179,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45299</v>
+        <v>45474</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4213,13 +4198,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>67.40000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4236,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46045</v>
+        <v>44749</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4275,13 +4255,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4318,14 +4293,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45338</v>
+        <v>45299</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4339,11 +4314,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.6</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4380,14 +4355,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4399,8 +4374,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>12.6</v>
+        <v>0.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4437,14 +4417,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45474</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4457,7 +4437,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4494,14 +4474,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45455</v>
+        <v>45337</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4514,7 +4494,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>12.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4551,14 +4531,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45429</v>
+        <v>45455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4571,7 +4551,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4608,14 +4588,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45429</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4628,7 +4608,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4665,14 +4645,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44907</v>
+        <v>45891</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4682,11 +4662,6 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -4727,14 +4702,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45112</v>
+        <v>44907</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,7 +4727,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4789,14 +4764,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45112</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4814,7 +4789,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4851,14 +4826,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45863</v>
+        <v>45891</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4871,7 +4846,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4908,14 +4883,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45891</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4927,8 +4902,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4965,14 +4945,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45302</v>
+        <v>45863</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4984,13 +4964,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>16.1</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5027,14 +5002,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45891</v>
+        <v>45302</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5046,8 +5021,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>3.9</v>
+        <v>16.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5084,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>45940</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5103,13 +5083,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5153,7 +5128,7 @@
         <v>45323</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5208,14 +5183,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45337</v>
+        <v>45966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5228,7 +5203,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5265,14 +5240,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45338</v>
+        <v>45966</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5284,13 +5259,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>28.6</v>
+        <v>5.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5327,14 +5297,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45337</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5346,13 +5316,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5389,14 +5354,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45966</v>
+        <v>45338</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5408,8 +5373,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>28.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5446,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45966</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5465,8 +5435,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>5.6</v>
+        <v>0.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5503,14 +5478,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>46003</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5523,7 +5498,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5560,14 +5535,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46053</v>
+        <v>44991</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5579,8 +5554,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5617,14 +5597,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45978</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5637,7 +5617,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5674,14 +5654,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45324</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5693,8 +5673,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>9.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5731,14 +5716,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45324</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5752,11 +5737,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5793,14 +5778,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5818,7 +5803,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5855,14 +5840,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>44876</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5874,13 +5859,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5917,14 +5897,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45940</v>
+        <v>45385</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5937,7 +5917,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5974,14 +5954,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45940</v>
+        <v>45412</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5993,8 +5973,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6031,14 +6016,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46000</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6051,7 +6036,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6088,14 +6073,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44876</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,8 +6092,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6145,14 +6135,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45385</v>
+        <v>45488</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6165,7 +6155,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>9.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6202,14 +6192,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45940</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6221,8 +6211,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6259,14 +6254,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45412</v>
+        <v>46045</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6284,7 +6279,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6321,14 +6316,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45488</v>
+        <v>45408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6341,7 +6336,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6378,14 +6373,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46003</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,8 +6392,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6435,14 +6435,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44991</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>12.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6497,14 +6497,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45408</v>
+        <v>44320</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6516,8 +6516,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6554,14 +6559,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6579,7 +6584,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12.4</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6616,14 +6621,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44320</v>
+        <v>45546</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6637,11 +6642,11 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6678,14 +6683,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>44344</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6703,7 +6708,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>14.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6740,14 +6745,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45546</v>
+        <v>45414</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6761,11 +6766,11 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6802,14 +6807,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44344</v>
+        <v>45009</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6821,13 +6826,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>14.8</v>
+        <v>3.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6864,14 +6864,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45414</v>
+        <v>46053</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6883,13 +6883,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6926,14 +6921,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45009</v>
+        <v>45337</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6946,7 +6941,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6983,14 +6978,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45337</v>
+        <v>45940</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7003,7 +6998,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7040,14 +7035,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45119</v>
+        <v>46000</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7060,7 +7055,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7097,14 +7092,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45408</v>
+        <v>46049</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7116,8 +7111,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7154,14 +7154,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44952</v>
+        <v>45119</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7211,14 +7211,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45940</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7268,14 +7268,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7287,13 +7287,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7330,14 +7325,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45376</v>
+        <v>44952</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7349,13 +7344,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7392,14 +7382,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45457</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7412,7 +7402,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7449,14 +7439,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45329</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7511,14 +7501,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45376</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7530,8 +7520,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7568,14 +7563,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45162</v>
+        <v>45457</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7588,7 +7583,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7625,14 +7620,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45429</v>
+        <v>45329</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7644,8 +7639,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7682,14 +7682,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45418</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7701,13 +7701,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7744,14 +7739,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45162</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7763,13 +7758,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>11.2</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7806,14 +7796,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45469</v>
+        <v>45429</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7826,7 +7816,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7863,14 +7853,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45104</v>
+        <v>45418</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7888,7 +7878,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7925,14 +7915,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45211</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7944,8 +7934,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>11.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7982,14 +7977,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45706</v>
+        <v>45469</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8002,7 +7997,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8039,14 +8034,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45334</v>
+        <v>45104</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8058,8 +8053,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8096,14 +8096,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45211</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8115,13 +8115,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8158,14 +8153,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45350</v>
+        <v>45706</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8178,7 +8173,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8215,14 +8210,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44888</v>
+        <v>45334</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8235,7 +8230,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8272,14 +8267,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45354</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8297,7 +8292,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8334,14 +8329,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44665</v>
+        <v>45350</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8353,13 +8348,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8396,14 +8386,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44384</v>
+        <v>44888</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8415,13 +8405,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8458,14 +8443,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44830</v>
+        <v>45354</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8477,8 +8462,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8515,14 +8505,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45453</v>
+        <v>44665</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8536,11 +8526,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8577,14 +8567,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45328</v>
+        <v>44384</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8596,8 +8586,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8634,14 +8629,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>44830</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8653,13 +8648,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>16.2</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8696,14 +8686,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45746</v>
+        <v>45453</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8715,8 +8705,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8753,14 +8748,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45260</v>
+        <v>45328</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8773,7 +8768,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8810,14 +8805,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8829,8 +8824,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.5</v>
+        <v>16.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8867,14 +8867,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45746</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8924,14 +8924,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45323</v>
+        <v>45260</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8943,13 +8943,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>15.2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8986,14 +8981,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9005,13 +9000,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9048,14 +9038,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9068,7 +9058,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9105,14 +9095,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44999</v>
+        <v>45323</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,11 +9116,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.2</v>
+        <v>15.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9167,14 +9157,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45749</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9186,8 +9176,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9224,14 +9219,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45532</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9244,7 +9239,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9281,14 +9276,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45532</v>
+        <v>44999</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9300,8 +9295,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9338,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45749</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9395,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45532</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9415,7 +9415,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45532</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 60809-2023</t>
+          <t>A 2018-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45260</v>
+        <v>45308</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>17.2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Åkerkulla
+Västlig hakmossa
+Röd glada</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 60809-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Gropticka
 Grovticka
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 2018-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45308</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Åkerkulla
-Västlig hakmossa
-Röd glada</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45534</v>
+        <v>45202</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45323</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2624,8 +2624,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>15.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2662,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2681,8 +2686,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2719,14 +2729,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45299</v>
+        <v>45337</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2738,13 +2748,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>5.7</v>
+        <v>12.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2781,14 +2786,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45532</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2801,7 +2806,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2838,14 +2843,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45337</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2858,7 +2863,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>12.6</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2895,14 +2900,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45791</v>
+        <v>44344</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2914,8 +2919,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>14.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2952,14 +2962,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45758</v>
+        <v>45532</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2972,7 +2982,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3009,14 +3019,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45579</v>
+        <v>45429</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3029,7 +3039,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10.1</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3066,14 +3076,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45313</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3086,7 +3096,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3123,14 +3133,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45386</v>
+        <v>45455</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3143,7 +3153,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3180,14 +3190,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45547</v>
+        <v>45457</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3200,7 +3210,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3237,14 +3247,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45978</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3257,7 +3267,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3294,14 +3304,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44579</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3314,7 +3324,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3351,14 +3361,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45300</v>
+        <v>45313</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3370,13 +3380,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3413,14 +3418,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45399</v>
+        <v>45791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3433,7 +3438,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3470,14 +3475,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45744</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3490,7 +3495,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3527,14 +3532,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45758</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3546,13 +3551,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3589,14 +3589,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45744</v>
+        <v>45891</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3646,14 +3646,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44986</v>
+        <v>45891</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3665,13 +3665,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3708,14 +3703,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3728,7 +3723,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3765,14 +3760,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45399</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3784,8 +3779,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>6.9</v>
+        <v>11.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3822,14 +3822,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45910</v>
+        <v>45547</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3879,14 +3879,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45909</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3898,13 +3898,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3941,14 +3936,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45414</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3960,8 +3955,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>9.699999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45338</v>
+        <v>45579</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4017,13 +4017,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>10.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4060,14 +4055,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45338</v>
+        <v>45966</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4079,13 +4074,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4122,14 +4112,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45202</v>
+        <v>45966</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4142,7 +4132,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4186,7 +4176,7 @@
         <v>45474</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4236,14 +4226,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44749</v>
+        <v>45408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4256,7 +4246,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4293,14 +4283,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45299</v>
+        <v>44999</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,11 +4304,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>67.40000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4355,14 +4345,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45338</v>
+        <v>45260</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4374,13 +4364,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4417,14 +4402,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4437,7 +4422,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4474,14 +4459,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45337</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4494,7 +4479,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>12.6</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4531,14 +4516,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45455</v>
+        <v>45350</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4551,7 +4536,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4588,14 +4573,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45429</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4608,7 +4593,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4645,14 +4630,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45891</v>
+        <v>45978</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4665,7 +4650,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4702,14 +4687,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44907</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4721,13 +4706,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4764,14 +4744,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45112</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4783,13 +4763,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4826,14 +4801,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45891</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4845,8 +4820,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4883,14 +4863,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4904,11 +4884,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4925,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45863</v>
+        <v>44986</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4964,8 +4944,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5002,14 +4987,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45302</v>
+        <v>45337</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5021,13 +5006,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>16.1</v>
+        <v>12.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5044,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45940</v>
+        <v>44888</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5064,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5101,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45323</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5146,7 +5126,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5183,14 +5163,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45966</v>
+        <v>45940</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5240,14 +5220,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45966</v>
+        <v>44991</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5259,8 +5239,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5297,14 +5282,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45337</v>
+        <v>45009</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5317,7 +5302,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5361,7 +5346,7 @@
         <v>45338</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5416,14 +5401,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5437,11 +5422,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5478,14 +5463,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46003</v>
+        <v>45863</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5498,7 +5483,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5535,14 +5520,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44991</v>
+        <v>46003</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5554,13 +5539,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5597,14 +5577,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45354</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5616,8 +5596,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5654,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45324</v>
+        <v>45386</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5673,13 +5658,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5716,14 +5696,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>44320</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5737,11 +5717,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5778,14 +5758,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>45706</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5797,13 +5777,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5840,14 +5815,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44876</v>
+        <v>45749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5860,7 +5835,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5897,14 +5872,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45385</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5917,7 +5892,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>9.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5954,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45412</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5979,7 +5954,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6016,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45746</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6036,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6073,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6098,7 +6073,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6135,14 +6110,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45488</v>
+        <v>46045</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6154,8 +6129,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6192,14 +6172,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6211,13 +6191,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6254,14 +6229,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46045</v>
+        <v>45299</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6279,7 +6254,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6316,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45408</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6335,8 +6310,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>16.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6380,7 +6360,7 @@
         <v>46057.43400462963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6435,14 +6415,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>46053</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,13 +6434,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>12.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6497,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44320</v>
+        <v>44952</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6516,13 +6491,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6559,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45323</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6584,7 +6554,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6621,14 +6591,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45546</v>
+        <v>46000</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6640,13 +6610,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6683,14 +6648,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44344</v>
+        <v>45940</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6702,13 +6667,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>14.8</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6745,14 +6705,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45414</v>
+        <v>46049</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6770,7 +6730,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6807,14 +6767,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45009</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6826,8 +6786,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6864,14 +6829,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46053</v>
+        <v>45940</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6884,7 +6849,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6921,14 +6886,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45337</v>
+        <v>45399</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6941,7 +6906,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6978,14 +6943,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45940</v>
+        <v>44579</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6998,7 +6963,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7035,14 +7000,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46000</v>
+        <v>45328</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7055,7 +7020,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7092,14 +7057,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46049</v>
+        <v>45488</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7111,13 +7076,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7154,14 +7114,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45119</v>
+        <v>45338</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7173,8 +7133,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7211,14 +7176,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45940</v>
+        <v>45337</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,14 +7233,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45408</v>
+        <v>45104</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7287,8 +7252,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7325,14 +7295,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44952</v>
+        <v>45112</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7344,8 +7314,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7382,14 +7357,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45119</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7402,7 +7377,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>6.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7439,14 +7414,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45376</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7464,7 +7439,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7501,14 +7476,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45376</v>
+        <v>45408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7520,13 +7495,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7563,14 +7533,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45457</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7583,7 +7553,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7620,14 +7590,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45329</v>
+        <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7639,13 +7609,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7682,14 +7647,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45211</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7702,7 +7667,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7739,14 +7704,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45162</v>
+        <v>44907</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7758,8 +7723,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7796,14 +7766,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45429</v>
+        <v>44665</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7815,8 +7785,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7853,14 +7828,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45418</v>
+        <v>45337</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7872,13 +7847,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7915,14 +7885,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45299</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7936,11 +7906,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7977,14 +7947,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45469</v>
+        <v>45302</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7996,8 +7966,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4.4</v>
+        <v>16.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8034,14 +8009,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45104</v>
+        <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8053,13 +8028,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8096,14 +8066,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45211</v>
+        <v>44384</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8115,8 +8085,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8153,14 +8128,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45706</v>
+        <v>45469</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8173,7 +8148,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8210,14 +8185,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45334</v>
+        <v>45418</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8229,8 +8204,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8267,14 +8247,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 23496-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45453</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8288,11 +8268,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8329,14 +8309,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45350</v>
+        <v>45338</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8348,8 +8328,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8386,14 +8371,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44888</v>
+        <v>45338</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8405,8 +8390,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8443,14 +8433,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45354</v>
+        <v>45412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8468,7 +8458,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8505,14 +8495,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44665</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8524,13 +8514,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8567,14 +8552,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44384</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8592,7 +8577,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8629,14 +8614,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44830</v>
+        <v>45329</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8648,8 +8633,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8686,14 +8676,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 23496-2024</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45453</v>
+        <v>45300</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8707,11 +8697,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>11.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8748,14 +8738,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45328</v>
+        <v>44876</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8768,7 +8758,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8805,14 +8795,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8824,13 +8814,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>16.2</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8867,14 +8852,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45746</v>
+        <v>45546</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8886,8 +8871,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8924,14 +8914,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45260</v>
+        <v>45429</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8944,7 +8934,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8981,14 +8971,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45324</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9000,8 +8990,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.5</v>
+        <v>9.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9038,14 +9033,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9057,8 +9052,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>4.3</v>
+        <v>12.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9095,14 +9095,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45323</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9120,7 +9120,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>15.2</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9157,14 +9157,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45534</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9176,13 +9176,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9219,14 +9214,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45385</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9239,7 +9234,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9276,14 +9271,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44999</v>
+        <v>45399</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9295,13 +9290,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9338,14 +9328,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45749</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9357,8 +9347,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9395,14 +9390,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45532</v>
+        <v>45334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9415,7 +9410,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9452,14 +9447,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45532</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9471,8 +9466,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>

--- a/Översikt TOMELILLA.xlsx
+++ b/Översikt TOMELILLA.xlsx
@@ -575,7 +575,7 @@
         <v>44756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45952.61631944445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -873,14 +873,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 2018-2024</t>
+          <t>A 60809-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45308</v>
+        <v>45260</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -926,128 +926,128 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Gropticka
+Grovticka
+Vanlig padda</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 2018-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Åkerkulla
 Västlig hakmossa
 Röd glada</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 2018-2024 artfynd.xlsx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 2018-2024 karta.png", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 2018-2024 FSC-klagomål.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 2018-2024 FSC-klagomål mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 2018-2024 tillsynsbegäran.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 2018-2024 tillsynsbegäran mail.docx", "A 2018-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1270/fåglar/A 2018-2024 prioriterade fågelarter.docx", "A 2018-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 60809-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45260</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>TOMELILLA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gropticka
-Grovticka
-Vanlig padda</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/artfynd/A 60809-2023 artfynd.xlsx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/kartor/A 60809-2023 karta.png", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomål/A 60809-2023 FSC-klagomål.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/klagomålsmail/A 60809-2023 FSC-klagomål mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsyn/A 60809-2023 tillsynsbegäran.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1270/tillsynsmail/A 60809-2023 tillsynsbegäran mail.docx", "A 60809-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44355</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>44721</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>45903</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>45811.4569212963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         <v>45260</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45300</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44266</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44684</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>44251</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44560</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44490</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>44284</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1940,7 +1940,7 @@
         <v>44613</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>44694.42083333333</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>44250</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>44658</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>44642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>44384</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         <v>44384</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         <v>44721</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2548,14 +2548,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 47231-2023</t>
+          <t>A 36180-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45202</v>
+        <v>45534</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2605,14 +2605,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 4023-2024</t>
+          <t>A 566-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45323</v>
+        <v>45299</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>15.2</v>
+        <v>5.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2667,14 +2667,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11802-2024</t>
+          <t>A 2548-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45375.71997685185</v>
+        <v>45313</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2686,13 +2686,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2729,14 +2724,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 13159-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45337</v>
+        <v>45386</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2749,7 +2744,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2786,14 +2781,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35742-2024</t>
+          <t>A 2555-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45532</v>
+        <v>44579</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2843,14 +2838,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 48171-2025</t>
+          <t>A 743-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45933.43429398148</v>
+        <v>45300</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2862,8 +2857,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>11.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2900,14 +2900,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 25899-2021</t>
+          <t>A 15075-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44344</v>
+        <v>45399</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2919,13 +2919,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>14.8</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2962,14 +2957,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35715-2024</t>
+          <t>A 11887-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45532</v>
+        <v>45376.50527777777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2981,8 +2976,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 19454-2024</t>
+          <t>A 10272-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45429</v>
+        <v>44986</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3038,8 +3038,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>7.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3076,14 +3081,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17907-2024</t>
+          <t>A 24936-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45419.50770833333</v>
+        <v>45461.61817129629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3095,8 +3100,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3133,14 +3143,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23813-2024</t>
+          <t>A 15012-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45455</v>
+        <v>45399</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3153,7 +3163,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>6.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3190,14 +3200,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24248-2024</t>
+          <t>A 47231-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45457</v>
+        <v>45202</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3210,7 +3220,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3247,14 +3257,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 11806-2025</t>
+          <t>A 8190-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45727.88857638889</v>
+        <v>45338</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3266,8 +3276,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3304,14 +3319,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11810-2025</t>
+          <t>A 8192-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45727.90560185185</v>
+        <v>45338</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3323,8 +3338,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3361,14 +3381,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2548-2024</t>
+          <t>A 28966-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45313</v>
+        <v>44749</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3381,7 +3401,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3418,14 +3438,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 23185-2025</t>
+          <t>A 578-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45791</v>
+        <v>45299</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3437,8 +3457,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.8</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3475,14 +3500,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 15158-2025</t>
+          <t>A 11811-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45744</v>
+        <v>45727.9189699074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3495,7 +3520,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3532,14 +3557,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 17760-2025</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45758</v>
+        <v>45337</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3552,7 +3577,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.7</v>
+        <v>12.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3589,14 +3614,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39791-2025</t>
+          <t>A 6357-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45891</v>
+        <v>45338</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3608,8 +3633,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3646,14 +3676,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39796-2025</t>
+          <t>A 23813-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45891</v>
+        <v>45455</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3666,7 +3696,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3703,14 +3733,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 43306-2025</t>
+          <t>A 19454-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45910</v>
+        <v>45429</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3723,7 +3753,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3760,14 +3790,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44675-2024</t>
+          <t>A 6261-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45574.53934027778</v>
+        <v>45337</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3779,13 +3809,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3822,14 +3847,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 38787-2024</t>
+          <t>A 15158-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45547</v>
+        <v>45744</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3842,7 +3867,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3879,14 +3904,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 42929-2025</t>
+          <t>A 59528-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45909</v>
+        <v>44907</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3898,8 +3923,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3936,14 +3966,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17316-2024</t>
+          <t>A 30673-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45414</v>
+        <v>45112</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3961,7 +3991,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3998,14 +4028,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45729-2024</t>
+          <t>A 42929-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45579</v>
+        <v>45909</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4018,7 +4048,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>10.1</v>
+        <v>3.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4055,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 54674-2025</t>
+          <t>A 43306-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45966</v>
+        <v>45910</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4075,7 +4105,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4112,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 54671-2025</t>
+          <t>A 1199-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45966</v>
+        <v>45302</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4131,8 +4161,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>16.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4169,14 +4204,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27424-2024</t>
+          <t>A 35792-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45474</v>
+        <v>45861.34115740741</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4186,6 +4221,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>TOMELILLA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -4226,14 +4266,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 16568-2024</t>
+          <t>A 4018-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45408</v>
+        <v>45323</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4245,8 +4285,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4283,14 +4328,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12310-2023</t>
+          <t>A 35971-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44999</v>
+        <v>45863</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4302,13 +4347,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4345,14 +4385,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60813-2023</t>
+          <t>A 27424-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45260</v>
+        <v>45474</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4365,7 +4405,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4402,14 +4442,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60815-2023</t>
+          <t>A 6259-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45260.71196759259</v>
+        <v>45337</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4422,7 +4462,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4459,14 +4499,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60817-2023</t>
+          <t>A 6316-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45260.71628472222</v>
+        <v>45338</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4478,8 +4518,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>4.3</v>
+        <v>28.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4516,14 +4561,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7955-2024</t>
+          <t>A 24934-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45350</v>
+        <v>45461.61667824074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4535,8 +4580,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4573,14 +4623,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11811-2025</t>
+          <t>A 48171-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45727.9189699074</v>
+        <v>45933.43429398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4593,7 +4643,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4630,14 +4680,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 56735-2025</t>
+          <t>A 42794-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45978</v>
+        <v>45566.55065972222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4650,7 +4700,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4687,14 +4737,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 42794-2024</t>
+          <t>A 39791-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45566.55065972222</v>
+        <v>45891</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4707,7 +4757,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4744,14 +4794,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 57598-2025</t>
+          <t>A 39796-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45981.26616898148</v>
+        <v>45891</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4764,7 +4814,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4801,14 +4851,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 2190-2022</t>
+          <t>A 4188-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44578.48868055556</v>
+        <v>45324</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4822,11 +4872,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4863,14 +4913,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 2193-2022</t>
+          <t>A 2190-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44578.49351851852</v>
+        <v>44578.48868055556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4888,7 +4938,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4925,14 +4975,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 10272-2023</t>
+          <t>A 2193-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44986</v>
+        <v>44578.49351851852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4946,11 +4996,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>7.7</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4987,14 +5037,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 6261-2024</t>
+          <t>A 53977-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45337</v>
+        <v>44876</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5007,7 +5057,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>12.6</v>
+        <v>2.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5044,14 +5094,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55676-2022</t>
+          <t>A 12903-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44888</v>
+        <v>45385</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5064,7 +5114,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5101,14 +5151,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30806-2023</t>
+          <t>A 17151-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45112.82001157408</v>
+        <v>45412</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5126,7 +5176,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5163,14 +5213,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49913-2025</t>
+          <t>A 30040-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45940</v>
+        <v>45488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5183,7 +5233,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5220,14 +5270,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11002-2023</t>
+          <t>A 54671-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44991</v>
+        <v>45966</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5239,13 +5289,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5282,14 +5327,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14152-2023</t>
+          <t>A 54674-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45009</v>
+        <v>45966</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5302,7 +5347,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5339,14 +5384,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6316-2024</t>
+          <t>A 16483-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45338</v>
+        <v>45408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5358,13 +5403,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>28.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5401,14 +5441,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35792-2025</t>
+          <t>A 56735-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45861.34115740741</v>
+        <v>45978</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5420,13 +5460,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5463,14 +5498,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35971-2025</t>
+          <t>A 57598-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45863</v>
+        <v>45981.26616898148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5518,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5520,14 +5555,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61970-2025</t>
+          <t>A 12663-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46003</v>
+        <v>44641.53417824074</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5539,8 +5574,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>12.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5577,14 +5617,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8455-2024</t>
+          <t>A 21245-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45354</v>
+        <v>44320</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5642,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5679,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 13159-2024</t>
+          <t>A 30806-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45386</v>
+        <v>45112.82001157408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5658,8 +5698,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5696,14 +5741,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21245-2021</t>
+          <t>A 38387-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44320</v>
+        <v>45546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5717,11 +5762,11 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5758,14 +5803,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7745-2025</t>
+          <t>A 25899-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45706</v>
+        <v>44344</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5777,8 +5822,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>14.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5865,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15921-2025</t>
+          <t>A 17316-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45749</v>
+        <v>45414</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5834,8 +5884,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5872,14 +5927,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61841-2025</t>
+          <t>A 14152-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46003.36383101852</v>
+        <v>45009</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5892,7 +5947,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5984,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4482-2026</t>
+          <t>A 49913-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46045.69024305556</v>
+        <v>45940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5948,13 +6003,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>6.5</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5991,14 +6041,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 15305-2025</t>
+          <t>A 61970-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45746</v>
+        <v>46003</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6011,7 +6061,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6048,14 +6098,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4967-2026</t>
+          <t>A 11002-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46049.33274305556</v>
+        <v>44991</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6073,7 +6123,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6110,14 +6160,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 4497-2026</t>
+          <t>A 6262-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46045</v>
+        <v>45337</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6129,13 +6179,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6172,14 +6217,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28966-2022</t>
+          <t>A 31993-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44749</v>
+        <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6192,7 +6237,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6229,14 +6274,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 578-2024</t>
+          <t>A 16568-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45299</v>
+        <v>45408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6248,13 +6293,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>67.40000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6331,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 12988-2024</t>
+          <t>A 4677-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45385.55417824074</v>
+        <v>44952</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6310,13 +6350,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>16.2</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6353,14 +6388,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6852-2026</t>
+          <t>A 61841-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46057.43400462963</v>
+        <v>46003.36383101852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6372,13 +6407,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6415,14 +6445,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6124-2026</t>
+          <t>A 4482-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46053</v>
+        <v>46045.69024305556</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6434,8 +6464,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>6.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6507,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4677-2023</t>
+          <t>A 56968-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44952</v>
+        <v>45628.66327546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,7 +6527,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6529,14 +6564,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4018-2024</t>
+          <t>A 11802-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45323</v>
+        <v>45375.71997685185</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6554,7 +6589,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6591,14 +6626,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 61314-2025</t>
+          <t>A 11894-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46000</v>
+        <v>45376</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6610,8 +6645,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6648,14 +6688,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49813-2025</t>
+          <t>A 4967-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45940</v>
+        <v>46049.33274305556</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6667,8 +6707,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6705,14 +6750,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4969-2026</t>
+          <t>A 24248-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46049</v>
+        <v>45457</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6724,13 +6769,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6767,14 +6807,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24934-2024</t>
+          <t>A 4497-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45461.61667824074</v>
+        <v>46045</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6788,11 +6828,11 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6829,14 +6869,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 49815-2025</t>
+          <t>A 5027-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45940</v>
+        <v>45329</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6848,8 +6888,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6886,14 +6931,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 15012-2024</t>
+          <t>A 6852-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45399</v>
+        <v>46057.43400462963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6905,8 +6950,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6943,14 +6993,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 2555-2022</t>
+          <t>A 12181-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44579</v>
+        <v>44998.55116898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6963,7 +7013,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7000,14 +7050,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 4651-2024</t>
+          <t>A 38562-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45328</v>
+        <v>45162</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7020,7 +7070,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7057,14 +7107,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 30040-2024</t>
+          <t>A 19500-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45488</v>
+        <v>45429</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7077,7 +7127,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7114,14 +7164,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6357-2024</t>
+          <t>A 17778-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45338</v>
+        <v>45418</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7135,11 +7185,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7176,14 +7226,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6262-2024</t>
+          <t>A 44675-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45337</v>
+        <v>45574.53934027778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7195,8 +7245,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>11.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7233,14 +7288,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 28862-2023</t>
+          <t>A 61314-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45104</v>
+        <v>46000</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7252,13 +7307,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7295,14 +7345,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30673-2023</t>
+          <t>A 26473-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45112</v>
+        <v>45469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7314,13 +7364,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7357,14 +7402,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31993-2023</t>
+          <t>A 4969-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45119</v>
+        <v>46049</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,8 +7421,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>6.8</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7414,14 +7464,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11894-2024</t>
+          <t>A 28862-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45376</v>
+        <v>45104</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7439,7 +7489,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7476,14 +7526,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16483-2024</t>
+          <t>A 51031-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45408</v>
+        <v>45211</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7496,7 +7546,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7533,14 +7583,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 995-2025</t>
+          <t>A 49813-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45666.45462962963</v>
+        <v>45940</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7553,7 +7603,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7590,14 +7640,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38562-2023</t>
+          <t>A 7745-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45162</v>
+        <v>45706</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7610,7 +7660,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7647,14 +7697,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 51031-2023</t>
+          <t>A 6124-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45211</v>
+        <v>46053</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7667,7 +7717,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7704,14 +7754,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 59528-2022</t>
+          <t>A 49815-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44907</v>
+        <v>45940</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7723,13 +7773,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7766,14 +7811,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16027-2022</t>
+          <t>A 5565-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44665</v>
+        <v>45334</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7785,13 +7830,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7828,14 +7868,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6259-2024</t>
+          <t>A 23310-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45337</v>
+        <v>44720.47737268519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7847,8 +7887,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7885,14 +7930,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 566-2024</t>
+          <t>A 7955-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45299</v>
+        <v>45350</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7904,13 +7949,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7947,14 +7987,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 1199-2024</t>
+          <t>A 55676-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45302</v>
+        <v>44888</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7966,13 +8006,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>16.1</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8009,14 +8044,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42387-2022</t>
+          <t>A 8455-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44830</v>
+        <v>45354</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8028,8 +8063,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8066,14 +8106,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35142-2021</t>
+          <t>A 16027-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44384</v>
+        <v>44665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8091,7 +8131,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8128,14 +8168,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 26473-2024</t>
+          <t>A 35142-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45469</v>
+        <v>44384</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8147,8 +8187,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8185,14 +8230,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 17778-2024</t>
+          <t>A 42387-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45418</v>
+        <v>44830</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8204,13 +8249,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8254,7 +8294,7 @@
         <v>45453</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8309,14 +8349,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8190-2024</t>
+          <t>A 4651-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45338</v>
+        <v>45328</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8328,13 +8368,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8371,14 +8406,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 8192-2024</t>
+          <t>A 12988-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45338</v>
+        <v>45385.55417824074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8392,11 +8427,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>16.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8433,14 +8468,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17151-2024</t>
+          <t>A 15305-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45412</v>
+        <v>45746</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8452,13 +8487,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8495,14 +8525,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12181-2023</t>
+          <t>A 60813-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44998.55116898148</v>
+        <v>45260</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8515,7 +8545,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8552,14 +8582,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 23310-2022</t>
+          <t>A 60815-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44720.47737268519</v>
+        <v>45260.71196759259</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8571,13 +8601,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8614,14 +8639,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 5027-2024</t>
+          <t>A 60817-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45329</v>
+        <v>45260.71628472222</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8633,13 +8658,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8676,14 +8696,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 743-2024</t>
+          <t>A 4023-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45300</v>
+        <v>45323</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8701,7 +8721,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>11.1</v>
+        <v>15.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8738,14 +8758,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53977-2022</t>
+          <t>A 3291-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44876</v>
+        <v>45679.63872685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8757,8 +8777,13 @@
           <t>TOMELILLA</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8795,14 +8820,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 56968-2024</t>
+          <t>A 995-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45628.66327546296</v>
+        <v>45666.45462962963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8815,7 +8840,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8852,14 +8877,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 38387-2024</t>
+          <t>A 12310-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45546</v>
+        <v>44999</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8877,7 +8902,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8914,14 +8939,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 19500-2024</t>
+          <t>A 15921-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45429</v>
+        <v>45749</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8934,7 +8959,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8971,14 +8996,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 4188-2024</t>
+          <t>A 35742-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45324</v>
+        <v>45532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8990,13 +9015,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9033,14 +9053,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 12663-2022</t>
+          <t>A 35715-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44641.53417824074</v>
+        <v>45532</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9052,13 +9072,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>12.4</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9095,14 +9110,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 3291-2025</t>
+          <t>A 11806-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45679.63872685185</v>
+        <v>45727.88857638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9114,13 +9129,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9157,14 +9167,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 36180-2024</t>
+          <t>A 11810-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45534</v>
+        <v>45727.90560185185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9177,7 +9187,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9214,14 +9224,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12903-2024</t>
+          <t>A 17907-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45385</v>
+        <v>45419.50770833333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9234,7 +9244,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>9.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9271,14 +9281,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15075-2024</t>
+          <t>A 23185-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45399</v>
+        <v>45791</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9291,7 +9301,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9328,14 +9338,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11887-2024</t>
+          <t>A 17760-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45376.50527777777</v>
+        <v>45758</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9347,13 +9357,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9390,14 +9395,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5565-2024</t>
+          <t>A 45729-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45334</v>
+        <v>45579</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9410,7 +9415,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.9</v>
+        <v>10.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9447,14 +9452,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 24936-2024</t>
+          <t>A 38787-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45461.61817129629</v>
+        <v>45547</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9466,13 +9471,8 @@
           <t>TOMELILLA</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
